--- a/Accuracy/Week_08_Accuracy.xlsx
+++ b/Accuracy/Week_08_Accuracy.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\corp.nsa.gov\udroot$\gh1\navol3061\tabelfi\private\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tyler\Documents\project-dark-erebus\Accuracy\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="59">
   <si>
     <t>Away Team</t>
   </si>
@@ -59,12 +59,6 @@
     <t>XGB Prob</t>
   </si>
   <si>
-    <t>SVM RBF Pred</t>
-  </si>
-  <si>
-    <t>SVM RBF Prob</t>
-  </si>
-  <si>
     <t>Miami Dolphins</t>
   </si>
   <si>
@@ -164,9 +158,6 @@
     <t>RF Acc</t>
   </si>
   <si>
-    <t>SVM RBF Acc</t>
-  </si>
-  <si>
     <t>no</t>
   </si>
   <si>
@@ -201,12 +192,21 @@
   </si>
   <si>
     <t>Ovr Record:</t>
+  </si>
+  <si>
+    <t>tie</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>6-3-5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -520,31 +520,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U17"/>
+  <dimension ref="A1:S17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U18" sqref="U18"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="R18" sqref="R18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.15625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.26171875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.68359375" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="12.15625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="15.578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.41796875" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="7.68359375" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="13.41796875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.15625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.41796875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.83984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -561,7 +561,7 @@
         <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H1" t="s">
         <v>5</v>
@@ -570,7 +570,7 @@
         <v>6</v>
       </c>
       <c r="J1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K1" t="s">
         <v>7</v>
@@ -579,7 +579,7 @@
         <v>8</v>
       </c>
       <c r="M1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N1" t="s">
         <v>9</v>
@@ -588,971 +588,831 @@
         <v>10</v>
       </c>
       <c r="P1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="Q1" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="R1" t="s">
-        <v>12</v>
-      </c>
-      <c r="S1" t="s">
-        <v>46</v>
-      </c>
-      <c r="T1" t="s">
-        <v>50</v>
-      </c>
-      <c r="U1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F2">
         <v>94.56901397</v>
       </c>
       <c r="G2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I2">
         <v>52.944258679999997</v>
       </c>
       <c r="J2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="K2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="L2">
         <v>70</v>
       </c>
       <c r="M2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="N2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="O2">
         <v>99.771716429999998</v>
       </c>
       <c r="P2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="Q2" t="s">
+        <v>56</v>
+      </c>
+      <c r="R2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
         <v>15</v>
       </c>
-      <c r="R2">
-        <v>65.862579339999996</v>
-      </c>
-      <c r="S2" t="s">
-        <v>47</v>
-      </c>
-      <c r="T2" t="s">
-        <v>15</v>
-      </c>
-      <c r="U2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>17</v>
-      </c>
       <c r="C3" t="s">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F3">
         <v>99.999763340000001</v>
       </c>
       <c r="G3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I3">
         <v>77.003208709999996</v>
       </c>
       <c r="J3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="K3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L3">
         <v>60</v>
       </c>
       <c r="M3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="N3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O3">
         <v>99.875805959999994</v>
       </c>
       <c r="P3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="Q3" t="s">
-        <v>15</v>
-      </c>
-      <c r="R3">
-        <v>65.862579339999996</v>
-      </c>
-      <c r="S3" t="s">
-        <v>48</v>
-      </c>
-      <c r="T3" t="s">
-        <v>15</v>
-      </c>
-      <c r="U3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="R3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F4">
         <v>97.824383780000005</v>
       </c>
       <c r="G4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I4">
         <v>59.96347446</v>
       </c>
       <c r="J4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="K4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="L4">
         <v>70</v>
       </c>
       <c r="M4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="N4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O4">
         <v>99.688447080000003</v>
       </c>
       <c r="P4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="Q4" t="s">
-        <v>16</v>
-      </c>
-      <c r="R4">
-        <v>65.862579339999996</v>
-      </c>
-      <c r="S4" t="s">
-        <v>48</v>
-      </c>
-      <c r="T4" t="s">
-        <v>52</v>
-      </c>
-      <c r="U4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="R4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F5">
         <v>65.913027720000002</v>
       </c>
       <c r="G5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I5">
         <v>59.258386870000002</v>
       </c>
       <c r="J5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="K5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="L5">
         <v>70</v>
       </c>
       <c r="M5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="N5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="O5">
         <v>99.76548769</v>
       </c>
       <c r="P5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="Q5" t="s">
-        <v>16</v>
-      </c>
-      <c r="R5">
-        <v>65.862579339999996</v>
-      </c>
-      <c r="S5" t="s">
-        <v>48</v>
-      </c>
-      <c r="T5" t="s">
-        <v>52</v>
-      </c>
-      <c r="U5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="R5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F6">
         <v>96.077214780000006</v>
       </c>
       <c r="G6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I6">
         <v>60.81018693</v>
       </c>
       <c r="J6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="K6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L6">
         <v>70</v>
       </c>
       <c r="M6" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="N6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O6">
         <v>99.378156189999999</v>
       </c>
       <c r="P6" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="Q6" t="s">
-        <v>16</v>
-      </c>
-      <c r="R6">
-        <v>65.862579339999996</v>
-      </c>
-      <c r="S6" t="s">
-        <v>47</v>
-      </c>
-      <c r="T6" t="s">
-        <v>52</v>
-      </c>
-      <c r="U6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+      <c r="R6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F7">
         <v>99.999952370000003</v>
       </c>
       <c r="G7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I7">
         <v>85.880243820000004</v>
       </c>
       <c r="J7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="K7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L7">
         <v>50</v>
       </c>
       <c r="M7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="N7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O7">
         <v>99.956569250000001</v>
       </c>
       <c r="P7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="Q7" t="s">
-        <v>16</v>
-      </c>
-      <c r="R7">
-        <v>65.862579339999996</v>
-      </c>
-      <c r="S7" t="s">
-        <v>47</v>
-      </c>
-      <c r="T7" t="s">
-        <v>52</v>
-      </c>
-      <c r="U7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+      <c r="R7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F8">
         <v>94.566482620000002</v>
       </c>
       <c r="G8" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I8">
         <v>52.734570490000003</v>
       </c>
       <c r="J8" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="K8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L8">
         <v>50</v>
       </c>
       <c r="M8" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="N8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="O8">
         <v>99.622073689999993</v>
       </c>
       <c r="P8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="Q8" t="s">
-        <v>15</v>
-      </c>
-      <c r="R8">
-        <v>65.862579339999996</v>
-      </c>
-      <c r="S8" t="s">
-        <v>47</v>
-      </c>
-      <c r="T8" t="s">
-        <v>53</v>
-      </c>
-      <c r="U8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="R8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C9" t="s">
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F9">
         <v>99.805863939999995</v>
       </c>
       <c r="G9" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I9">
         <v>71.039194210000005</v>
       </c>
       <c r="J9" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="K9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L9">
         <v>50</v>
       </c>
       <c r="M9" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="N9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O9">
         <v>99.681158789999998</v>
       </c>
       <c r="P9" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="Q9" t="s">
-        <v>16</v>
-      </c>
-      <c r="R9">
-        <v>65.862579339999996</v>
-      </c>
-      <c r="S9" t="s">
-        <v>48</v>
-      </c>
-      <c r="T9" t="s">
-        <v>52</v>
-      </c>
-      <c r="U9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+      <c r="R9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C10" t="s">
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F10">
         <v>63.255625620000004</v>
       </c>
       <c r="G10" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I10">
         <v>54.26632369</v>
       </c>
       <c r="J10" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="K10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L10">
         <v>80</v>
       </c>
       <c r="M10" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="N10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O10">
         <v>99.654116639999998</v>
       </c>
       <c r="P10" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="Q10" t="s">
-        <v>15</v>
-      </c>
-      <c r="R10">
-        <v>65.862579339999996</v>
-      </c>
-      <c r="S10" t="s">
-        <v>47</v>
-      </c>
-      <c r="T10" t="s">
-        <v>53</v>
-      </c>
-      <c r="U10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="R10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C11" t="s">
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F11">
         <v>98.218455789999993</v>
       </c>
       <c r="G11" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I11">
         <v>51.377271360000002</v>
       </c>
       <c r="J11" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="K11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L11">
         <v>90</v>
       </c>
       <c r="M11" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="N11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O11">
         <v>99.981726859999995</v>
       </c>
       <c r="P11" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="Q11" t="s">
-        <v>15</v>
-      </c>
-      <c r="R11">
-        <v>65.862579339999996</v>
-      </c>
-      <c r="S11" t="s">
-        <v>48</v>
-      </c>
-      <c r="T11" t="s">
-        <v>15</v>
-      </c>
-      <c r="U11" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="R11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C12" t="s">
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E12" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F12">
         <v>96.391121080000005</v>
       </c>
       <c r="G12" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H12" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I12">
         <v>53.130588330000002</v>
       </c>
       <c r="J12" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="K12" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L12">
         <v>60</v>
       </c>
       <c r="M12" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="N12" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O12">
         <v>99.9950896</v>
       </c>
       <c r="P12" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="Q12" t="s">
-        <v>15</v>
-      </c>
-      <c r="R12">
-        <v>65.862579339999996</v>
-      </c>
-      <c r="S12" t="s">
-        <v>47</v>
-      </c>
-      <c r="T12" t="s">
-        <v>15</v>
-      </c>
-      <c r="U12" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="R12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A13">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C13" t="s">
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F13">
         <v>96.655777420000007</v>
       </c>
       <c r="G13" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I13">
         <v>62.427303559999999</v>
       </c>
       <c r="J13" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="K13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="L13">
         <v>80</v>
       </c>
       <c r="M13" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="N13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O13">
         <v>99.720739039999998</v>
       </c>
       <c r="P13" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="Q13" t="s">
-        <v>16</v>
-      </c>
-      <c r="R13">
-        <v>65.862579339999996</v>
-      </c>
-      <c r="S13" t="s">
-        <v>48</v>
-      </c>
-      <c r="T13" t="s">
-        <v>52</v>
-      </c>
-      <c r="U13" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="R13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A14">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C14" t="s">
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E14" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F14">
         <v>90.098077230000001</v>
       </c>
       <c r="G14" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H14" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I14">
         <v>60.626746930000003</v>
       </c>
       <c r="J14" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="K14" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L14">
         <v>80</v>
       </c>
       <c r="M14" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="N14" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O14">
         <v>99.798729399999999</v>
       </c>
       <c r="P14" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="Q14" t="s">
-        <v>16</v>
-      </c>
-      <c r="R14">
-        <v>65.862579339999996</v>
-      </c>
-      <c r="S14" t="s">
-        <v>47</v>
-      </c>
-      <c r="T14" t="s">
-        <v>52</v>
-      </c>
-      <c r="U14" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+      <c r="R14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A15">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C15" t="s">
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E15" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F15">
         <v>99.999946870000002</v>
       </c>
       <c r="G15" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H15" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I15">
         <v>78.413766850000002</v>
       </c>
       <c r="J15" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="K15" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L15">
         <v>70</v>
       </c>
       <c r="M15" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="N15" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O15">
         <v>99.915034719999994</v>
       </c>
       <c r="P15" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="Q15" t="s">
-        <v>15</v>
-      </c>
-      <c r="R15">
-        <v>65.862579339999996</v>
-      </c>
-      <c r="S15" t="s">
-        <v>48</v>
-      </c>
-      <c r="T15" t="s">
-        <v>15</v>
-      </c>
-      <c r="U15" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="17" spans="6:21" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="R15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="6:19" x14ac:dyDescent="0.55000000000000004">
       <c r="F17" t="s">
+        <v>51</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I17" t="s">
+        <v>51</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="L17" t="s">
+        <v>51</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="O17" t="s">
+        <v>51</v>
+      </c>
+      <c r="P17" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="Q17" t="s">
         <v>55</v>
       </c>
-      <c r="I17" t="s">
-        <v>54</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="L17" t="s">
-        <v>54</v>
-      </c>
-      <c r="M17" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="O17" t="s">
-        <v>54</v>
-      </c>
-      <c r="P17" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="R17" t="s">
-        <v>54</v>
-      </c>
-      <c r="S17" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="T17" t="s">
+      <c r="R17" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="U17" s="1" t="s">
-        <v>55</v>
-      </c>
+      <c r="S17" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
